--- a/examples/yed_test_to_excel1.xlsx
+++ b/examples/yed_test_to_excel1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cole\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cole\GitHub\yedextended\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29E94397-9AF1-4BF4-B728-FD02C9785D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFCC1D39-BF80-4E86-BEBA-1F3EDDA24BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="2760" windowWidth="19965" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objects_and_Groups" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>FORMAT -&gt; LABEL | ID (INDENTATION OF INFO MEANS BELONGING TO GROUP ABOVE.)</t>
+    <t>FORMAT -&gt; OBJECT_LABEL | OBJECT_ID (OPTIONAL TO SUPPORT DISAMBIGUATION) - NOTE: INDENTATION OF INFO ONE COLUMN DESIGNATES BELONGING TO OBJECT ABOVE.</t>
   </si>
   <si>
     <t>Ivrea</t>
@@ -394,7 +394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
